--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -67,43 +67,37 @@
     <t xml:space="preserve">签字</t>
   </si>
   <si>
-    <t xml:space="preserve">Fri Jul 06 2018 00:51:15 GMT+0800 (China Standard Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">瘦肉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fri Jul 06 2018 00:51:15 GMT+0800 (China Standard Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fri Jul 06 2018 00:51:15 GMT+0800 (China Standard Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
+    <t xml:space="preserve">Sun Jul 08 2018 18:58:55 GMT+0800 (GMT+08:00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白菜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">斤</t>
   </si>
   <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sun Jul 08 2018 23:05:33 GMT+0800 (China Standard Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">瘦肉</t>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">采购人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收验货人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">供货人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun Jul 08 2018 19:01:02 GMT+0800 (GMT+08:00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">猪肉</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -112,10 +106,37 @@
     <t xml:space="preserve">斤</t>
   </si>
   <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">采购人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收验货人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">供货人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun Jul 08 2018 19:05:48 GMT+0800 (GMT+08:00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白菜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">采购人</t>
@@ -631,88 +652,116 @@
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="J5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="I6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -67,10 +67,43 @@
     <t xml:space="preserve">签字</t>
   </si>
   <si>
-    <t xml:space="preserve">Sun Jul 08 2018 18:58:55 GMT+0800 (GMT+08:00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白菜</t>
+    <t xml:space="preserve">Fri Jul 06 2018 00:51:15 GMT+0800 (China Standard Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">瘦肉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fri Jul 06 2018 00:51:15 GMT+0800 (China Standard Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fri Jul 06 2018 00:51:15 GMT+0800 (China Standard Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun Jul 08 2018 23:05:33 GMT+0800 (China Standard Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">瘦肉</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -79,10 +112,10 @@
     <t xml:space="preserve">斤</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">采购人</t>
@@ -94,10 +127,10 @@
     <t xml:space="preserve">供货人</t>
   </si>
   <si>
-    <t xml:space="preserve">Sun Jul 08 2018 19:01:02 GMT+0800 (GMT+08:00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">猪肉</t>
+    <t xml:space="preserve">Mon Jul 09 2018 23:43:52 GMT+0800 (China Standard Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">瘦肉</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -106,37 +139,10 @@
     <t xml:space="preserve">斤</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">采购人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">收验货人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">供货人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sun Jul 08 2018 19:05:48 GMT+0800 (GMT+08:00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白菜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">斤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">采购人</t>
@@ -652,113 +658,117 @@
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>

--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">导出文件</t>
+    <t xml:space="preserve">测试采购单</t>
   </si>
   <si>
     <t xml:space="preserve">年</t>
@@ -67,43 +67,37 @@
     <t xml:space="preserve">签字</t>
   </si>
   <si>
-    <t xml:space="preserve">Fri Jul 06 2018 00:51:15 GMT+0800 (China Standard Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">瘦肉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fri Jul 06 2018 00:51:15 GMT+0800 (China Standard Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fri Jul 06 2018 00:51:15 GMT+0800 (China Standard Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
+    <t xml:space="preserve">Sun Jul 08 2018 18:58:55 GMT+0800 (GMT+08:00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白菜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">斤</t>
   </si>
   <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sun Jul 08 2018 23:05:33 GMT+0800 (China Standard Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">瘦肉</t>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">采购人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收验货人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">供货人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun Jul 08 2018 19:01:02 GMT+0800 (GMT+08:00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">猪肉</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -112,10 +106,10 @@
     <t xml:space="preserve">斤</t>
   </si>
   <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">采购人</t>
@@ -127,10 +121,10 @@
     <t xml:space="preserve">供货人</t>
   </si>
   <si>
-    <t xml:space="preserve">Mon Jul 09 2018 23:43:52 GMT+0800 (China Standard Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">瘦肉</t>
+    <t xml:space="preserve">Sun Jul 08 2018 19:05:48 GMT+0800 (GMT+08:00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白菜</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -139,10 +133,10 @@
     <t xml:space="preserve">斤</t>
   </si>
   <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">采购人</t>
@@ -658,117 +652,113 @@
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="J5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="J6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>

--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">测试采购单</t>
+    <t xml:space="preserve">龙场营镇者把小学学生营养餐食品原材料采购台账</t>
   </si>
   <si>
     <t xml:space="preserve">年</t>
@@ -67,10 +67,43 @@
     <t xml:space="preserve">签字</t>
   </si>
   <si>
-    <t xml:space="preserve">Sun Jul 08 2018 18:58:55 GMT+0800 (GMT+08:00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白菜</t>
+    <t xml:space="preserve">Fri Jul 06 2018 00:51:15 GMT+0800 (China Standard Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">瘦肉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fri Jul 06 2018 00:51:15 GMT+0800 (China Standard Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fri Jul 06 2018 00:51:15 GMT+0800 (China Standard Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun Jul 08 2018 23:05:33 GMT+0800 (China Standard Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">瘦肉</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -79,10 +112,10 @@
     <t xml:space="preserve">斤</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">采购人</t>
@@ -94,10 +127,10 @@
     <t xml:space="preserve">供货人</t>
   </si>
   <si>
-    <t xml:space="preserve">Sun Jul 08 2018 19:01:02 GMT+0800 (GMT+08:00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">猪肉</t>
+    <t xml:space="preserve">Mon Jul 09 2018 23:43:52 GMT+0800 (China Standard Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">瘦肉</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -106,10 +139,10 @@
     <t xml:space="preserve">斤</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">采购人</t>
@@ -121,10 +154,10 @@
     <t xml:space="preserve">供货人</t>
   </si>
   <si>
-    <t xml:space="preserve">Sun Jul 08 2018 19:05:48 GMT+0800 (GMT+08:00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白菜</t>
+    <t xml:space="preserve">Tue Jul 10 2018 23:10:06 GMT+0800 (China Standard Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">瘦肉</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -133,10 +166,97 @@
     <t xml:space="preserve">斤</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">采购人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收验货人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">供货人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tue Jul 10 2018 23:13:14 GMT+0800 (China Standard Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">瘦肉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">采购人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收验货人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">供货人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tue Jul 10 2018 23:13:31 GMT+0800 (China Standard Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">瘦肉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tue Jul 10 2018 23:45:44 GMT+0800 (China Standard Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tue Jul 10 2018 23:45:46 GMT+0800 (China Standard Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">采购人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收验货人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">供货人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tue Jul 10 2018 23:45:36 GMT+0800 (China Standard Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">瘦肉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">采购人</t>
@@ -652,116 +772,252 @@
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
+      <c r="A7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">龙场营镇者把小学学生营养餐食品原材料采购台账</t>
+    <t xml:space="preserve">测试采购单</t>
   </si>
   <si>
     <t xml:space="preserve">年</t>
@@ -67,43 +67,37 @@
     <t xml:space="preserve">签字</t>
   </si>
   <si>
-    <t xml:space="preserve">Fri Jul 06 2018 00:51:15 GMT+0800 (China Standard Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">瘦肉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fri Jul 06 2018 00:51:15 GMT+0800 (China Standard Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fri Jul 06 2018 00:51:15 GMT+0800 (China Standard Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
+    <t xml:space="preserve">Sun Jul 08 2018 18:58:55 GMT+0800 (GMT+08:00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白菜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">斤</t>
   </si>
   <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sun Jul 08 2018 23:05:33 GMT+0800 (China Standard Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">瘦肉</t>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">采购人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收验货人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">供货人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun Jul 08 2018 19:01:02 GMT+0800 (GMT+08:00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">猪肉</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -112,10 +106,10 @@
     <t xml:space="preserve">斤</t>
   </si>
   <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">采购人</t>
@@ -127,10 +121,10 @@
     <t xml:space="preserve">供货人</t>
   </si>
   <si>
-    <t xml:space="preserve">Mon Jul 09 2018 23:43:52 GMT+0800 (China Standard Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">瘦肉</t>
+    <t xml:space="preserve">Sun Jul 08 2018 19:05:48 GMT+0800 (GMT+08:00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白菜</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -139,124 +133,10 @@
     <t xml:space="preserve">斤</t>
   </si>
   <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">采购人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">收验货人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">供货人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue Jul 10 2018 23:10:06 GMT+0800 (China Standard Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">瘦肉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">斤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">采购人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">收验货人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">供货人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue Jul 10 2018 23:13:14 GMT+0800 (China Standard Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">瘦肉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">斤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">采购人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">收验货人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">供货人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue Jul 10 2018 23:13:31 GMT+0800 (China Standard Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">瘦肉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue Jul 10 2018 23:45:44 GMT+0800 (China Standard Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue Jul 10 2018 23:45:46 GMT+0800 (China Standard Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">斤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">采购人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">收验货人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">供货人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue Jul 10 2018 23:45:36 GMT+0800 (China Standard Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">瘦肉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">斤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">采购人</t>
@@ -772,252 +652,116 @@
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="J5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="J6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">测试采购单</t>
+    <t xml:space="preserve">龙场营镇者把小学学生营养餐食品原材料采购台账</t>
   </si>
   <si>
     <t xml:space="preserve">年</t>
@@ -65,87 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">签字</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sun Jul 08 2018 18:58:55 GMT+0800 (GMT+08:00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白菜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">斤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">采购人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">收验货人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">供货人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sun Jul 08 2018 19:01:02 GMT+0800 (GMT+08:00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">猪肉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">斤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">采购人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">收验货人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">供货人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sun Jul 08 2018 19:05:48 GMT+0800 (GMT+08:00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白菜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">斤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">采购人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">收验货人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">供货人</t>
   </si>
   <si>
     <t xml:space="preserve">校长（签字）：</t>
@@ -646,122 +565,26 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -65,6 +65,60 @@
   </si>
   <si>
     <t xml:space="preserve">签字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun Jul 15 2018 23:49:15 GMT+0800 (China Standard Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">瘦肉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun Jul 15 2018 23:50:15 GMT+0800 (China Standard Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">瘦肉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
   </si>
   <si>
     <t xml:space="preserve">校长（签字）：</t>
@@ -565,26 +619,90 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">龙场营镇者把小学学生营养餐食品原材料采购台账</t>
+    <t xml:space="preserve">测试采购单</t>
   </si>
   <si>
     <t xml:space="preserve">年</t>
@@ -67,10 +67,10 @@
     <t xml:space="preserve">签字</t>
   </si>
   <si>
-    <t xml:space="preserve">Sun Jul 15 2018 23:49:15 GMT+0800 (China Standard Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">瘦肉</t>
+    <t xml:space="preserve">Sun Jul 08 2018 19:01:02 GMT+0800 (GMT+08:00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">猪肉</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -79,46 +79,19 @@
     <t xml:space="preserve">斤</t>
   </si>
   <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sun Jul 15 2018 23:50:15 GMT+0800 (China Standard Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">瘦肉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">斤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">采购人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收验货人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">供货人</t>
   </si>
   <si>
     <t xml:space="preserve">校长（签字）：</t>
@@ -651,58 +624,26 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -1,34 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\koa-learning\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{079BB156-C954-4020-8B1C-0914E4ADFC08}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B3C58773-7971-4F17-B6B1-FBA9863E3C88}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">测试采购单</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年</t>
-  </si>
-  <si>
-    <t xml:space="preserve">月份</t>
+    <t xml:space="preserve">龙场营镇者把小学学生营养餐食品原材料采购台账</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                             年  月份</t>
   </si>
   <si>
     <t xml:space="preserve">采购时间</t>
@@ -67,50 +64,71 @@
     <t xml:space="preserve">签字</t>
   </si>
   <si>
-    <t xml:space="preserve">Sun Jul 08 2018 19:01:02 GMT+0800 (GMT+08:00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">猪肉</t>
+    <t xml:space="preserve">Sun Jul 15 2018 23:49:15 GMT+0800 (China Standard Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">瘦肉</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
     <t xml:space="preserve">斤</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">采购人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">收验货人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">供货人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">校长（签字）：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分管校长（签字）：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">食堂管理员（签字）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">监督员（签字）：</t>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun Jul 15 2018 23:50:15 GMT+0800 (China Standard Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">瘦肉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    校长（签字）：             分管校长（签字）：              食堂管理员（签字）：                   监督员（签字）：                </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,28 +144,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -162,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -170,46 +204,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -507,149 +586,215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04525FF-C460-48C1-AEAA-DD41EFF3A869}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" ht="23.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="3" t="s">
+    <row r="2" spans="1:12" ht="19.5">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="1" t="s">
+    <row r="4" spans="1:12" ht="30" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2"/>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="5" t="s">
+    <row r="5" spans="1:12" ht="30" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2"/>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+    <row r="6" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A6:L8"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.43263888888888902" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -64,12 +64,18 @@
     <t xml:space="preserve">签字</t>
   </si>
   <si>
-    <t xml:space="preserve">Sun Jul 15 2018 23:49:15 GMT+0800 (China Standard Time)</t>
+    <t xml:space="preserve">2018年07月15日</t>
   </si>
   <si>
     <t xml:space="preserve">瘦肉</t>
   </si>
   <si>
+    <t xml:space="preserve">2018年08月07日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018年08月04日</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
@@ -82,19 +88,25 @@
     <t xml:space="preserve">15</t>
   </si>
   <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sun Jul 15 2018 23:50:15 GMT+0800 (China Standard Time)</t>
+    <t xml:space="preserve">余乾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">余乾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不知道</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018年07月15日</t>
   </si>
   <si>
     <t xml:space="preserve">瘦肉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018年08月04日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018年08月04日</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -687,66 +699,74 @@
       <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="E5" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>

--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -128,6 +128,39 @@
   </si>
   <si>
     <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018年08月05日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">娃哈哈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018年08月05日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018年08月05日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YU</t>
   </si>
   <si>
     <t xml:space="preserve">    校长（签字）：             分管校长（签字）：              食堂管理员（签字）：                   监督员（签字）：                </t>
@@ -764,35 +797,57 @@
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:12" ht="30" customHeight="1">
+      <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="B6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+    <row r="7" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="10"/>
@@ -808,11 +863,25 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A6:L8"/>
+    <mergeCell ref="A7:L9"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.43263888888888902" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -1,31 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\koa-learning\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\koa-learning\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B3C58773-7971-4F17-B6B1-FBA9863E3C88}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="普通班" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
+    <t xml:space="preserve">测试每日公示表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018年   月份   统计员      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[object Object]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">采购时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">食品名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生产日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保质期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">采购人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收验货人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">供货人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">签字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    校长（签字）：             分管校长（签字）：              食堂管理员（签字）：                   监督员（签字）：                </t>
+  </si>
+  <si>
     <t xml:space="preserve">龙场营镇者把小学学生营养餐食品原材料采购台账</t>
   </si>
   <si>
-    <t xml:space="preserve">                                             年  月份</t>
+    <t xml:space="preserve">                                            2017年  8 月份</t>
   </si>
   <si>
     <t xml:space="preserve">采购时间</t>
@@ -43,9 +91,6 @@
     <t xml:space="preserve">数量</t>
   </si>
   <si>
-    <t xml:space="preserve">单位</t>
-  </si>
-  <si>
     <t xml:space="preserve">单价</t>
   </si>
   <si>
@@ -64,103 +109,289 @@
     <t xml:space="preserve">签字</t>
   </si>
   <si>
-    <t xml:space="preserve">2018年07月15日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">瘦肉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018年08月07日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018年08月04日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">斤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">余乾</t>
-  </si>
-  <si>
-    <t xml:space="preserve">余乾</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不知道</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018年07月15日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">瘦肉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018年08月04日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018年08月04日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">斤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018年08月05日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">娃哈哈</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018年08月05日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018年08月05日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">斤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YU</t>
+    <t xml:space="preserve">茄子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张仕明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡萝卜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张仕明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">绿豆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张仕明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鸡油豆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张仕明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白萝卜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张仕明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">洋芋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张仕明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">捧瓜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张仕明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白菜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张仕明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">南瓜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张仕明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青椒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张仕明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">豆瓣酱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张仕明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">味精</t>
+  </si>
+  <si>
+    <t xml:space="preserve">680克</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15元/450克</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张仕明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    校长（签字）：             分管校长（签字）：              食堂管理员（签字）：                   监督员（签字）：                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">龙场营镇者把小学学生营养餐食品原材料采购台账</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            2017年  8 月份</t>
+  </si>
+  <si>
+    <t xml:space="preserve">采购时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">食品名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生产日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保质期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">采购人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收验货人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">供货人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">签字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">食盐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3500克</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3元/450克</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张仕明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">花椒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张仕明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生姜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张仕明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大蒜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张仕明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">辣椒面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张仕明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">酱油</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张仕明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">猪肉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大米</t>
+  </si>
+  <si>
+    <t xml:space="preserve">洋芋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张仕明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">豆腐皮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张仕明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡萝卜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张仕明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">茄子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张仕明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    校长（签字）：             分管校长（签字）：              食堂管理员（签字）：                   监督员（签字）：                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">龙场营镇者把小学学生营养餐食品原材料采购台账</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            2017年  8 月份</t>
+  </si>
+  <si>
+    <t xml:space="preserve">采购时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">食品名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生产日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保质期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">采购人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收验货人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">供货人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">签字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">南瓜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">豆腐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张邦秀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    校长（签字）：             分管校长（签字）：              食堂管理员（签字）：                   监督员（签字）：                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">龙场营镇者把小学学生营养餐食品原材料采购台账</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            2017年  8 月份</t>
+  </si>
+  <si>
+    <t xml:space="preserve">采购时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">食品名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生产日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保质期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">采购人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收验货人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">供货人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">签字</t>
   </si>
   <si>
     <t xml:space="preserve">    校长（签字）：             分管校长（签字）：              食堂管理员（签字）：                   监督员（签字）：                </t>
@@ -169,37 +400,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -207,29 +433,54 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -241,7 +492,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -273,60 +524,57 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,259 +879,1789 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="8.25" customWidth="1"/>
     <col min="5" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="14.75" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
+    <col min="11" max="11" width="8.75" customWidth="1"/>
+    <col min="12" max="12" width="13.75" customWidth="1"/>
+    <col min="13" max="13" width="9.5" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-    </row>
-    <row r="2" spans="1:12" ht="19.5">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-    </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="L3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" ht="30" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A7:L9"/>
+    <mergeCell ref="A17:L19"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.43263888888888902" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="6" width="8.25" customWidth="1"/>
+    <col min="8" max="8" width="11.25" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="11" max="11" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="G4" s="5">
+        <f>E4*F4</f>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" ref="G5:G14" si="0">E5*F5</f>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3">
+        <v>35</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3">
+        <v>72</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3">
+        <v>35</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3">
+        <v>88</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3">
+        <v>32</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3">
+        <v>24</v>
+      </c>
+      <c r="F14" s="5">
+        <v>3</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="5">
+        <f>680*15/450</f>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="5">
+        <f>3500*3/400</f>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F23" s="5">
+        <v>65</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" ref="G23:G33" si="1">E23*F23</f>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3">
+        <v>4</v>
+      </c>
+      <c r="F24" s="5">
+        <v>4</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3">
+        <v>4</v>
+      </c>
+      <c r="F25" s="5">
+        <v>5</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
+      <c r="F26" s="5">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="3">
+        <v>17</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="3">
+        <f>41-3</f>
+      </c>
+      <c r="F28" s="5">
+        <v>13</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="3">
+        <f>25*2*10</f>
+      </c>
+      <c r="F29" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>42976</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="3">
+        <v>320</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>42976</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="3">
+        <v>21</v>
+      </c>
+      <c r="F31" s="5">
+        <v>7</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>42976</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="3">
+        <v>16</v>
+      </c>
+      <c r="F32" s="5">
+        <v>2</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>42976</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="3">
+        <v>40</v>
+      </c>
+      <c r="F33" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+    </row>
+    <row r="37" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+    </row>
+    <row r="39" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <v>42976</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="3">
+        <v>65</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="G40" s="5">
+        <f>E40*F40</f>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
+        <v>42976</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="3">
+        <v>33</v>
+      </c>
+      <c r="F41" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" ref="G41:G50" si="2">E41*F41</f>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5">
+        <f t="shared" si="2"/>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5">
+        <f t="shared" si="2"/>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5">
+        <f t="shared" si="2"/>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5">
+        <f t="shared" si="2"/>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5">
+        <f t="shared" si="2"/>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5">
+        <f t="shared" si="2"/>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5">
+        <f t="shared" si="2"/>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5">
+        <f t="shared" si="2"/>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5">
+        <f t="shared" si="2"/>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="5">
+        <f>680*15/450</f>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+    </row>
+    <row r="55" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+    </row>
+    <row r="56" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+    </row>
+    <row r="57" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5">
+        <f>E58*F58</f>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5">
+        <f t="shared" ref="G59:G68" si="3">E59*F59</f>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="4"/>
+    </row>
+    <row r="60" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5">
+        <f t="shared" si="3"/>
+      </c>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="4"/>
+    </row>
+    <row r="61" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5">
+        <f t="shared" si="3"/>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="4"/>
+    </row>
+    <row r="62" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5">
+        <f t="shared" si="3"/>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="4"/>
+    </row>
+    <row r="63" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5">
+        <f t="shared" si="3"/>
+      </c>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="4"/>
+    </row>
+    <row r="64" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5">
+        <f t="shared" si="3"/>
+      </c>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="4"/>
+    </row>
+    <row r="65" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5">
+        <f t="shared" si="3"/>
+      </c>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="4"/>
+    </row>
+    <row r="66" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5">
+        <f t="shared" si="3"/>
+      </c>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="4"/>
+    </row>
+    <row r="67" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5">
+        <f t="shared" si="3"/>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="4"/>
+    </row>
+    <row r="68" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5">
+        <f t="shared" si="3"/>
+      </c>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="4"/>
+    </row>
+    <row r="69" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="5">
+        <f>680*15/450</f>
+      </c>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="4"/>
+    </row>
+    <row r="70" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A16:K18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A34:K36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A52:K54"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A70:K72"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>
--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -25,22 +25,19 @@
     <t xml:space="preserve">测试每日公示表</t>
   </si>
   <si>
-    <t xml:space="preserve">2018年   月份   统计员      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[object Object]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">采购时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">食品名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生产日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">保质期</t>
+    <t xml:space="preserve">2018年08月30日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">统计员Yuu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">公式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">公式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">食品原材料</t>
   </si>
   <si>
     <t xml:space="preserve">数量</t>
@@ -52,19 +49,73 @@
     <t xml:space="preserve">单价</t>
   </si>
   <si>
-    <t xml:space="preserve">金额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">采购人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">收验货人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">供货人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">签字</t>
+    <t xml:space="preserve">使用资金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">序号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">食谱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123123123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">酸菜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">芥菜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小白菜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大白菜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">    校长（签字）：             分管校长（签字）：              食堂管理员（签字）：                   监督员（签字）：                </t>
@@ -455,14 +506,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -483,6 +526,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -492,7 +543,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -524,11 +575,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -552,29 +673,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -892,321 +1034,241 @@
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="8.25" customWidth="1"/>
-    <col min="5" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="9.625" customWidth="1"/>
-    <col min="9" max="9" width="14.75" customWidth="1"/>
-    <col min="10" max="10" width="13.25" customWidth="1"/>
-    <col min="11" max="11" width="8.75" customWidth="1"/>
-    <col min="12" max="12" width="13.75" customWidth="1"/>
-    <col min="13" max="13" width="9.5" customWidth="1"/>
-    <col min="15" max="15" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="3.375" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="23" t="s">
+        <v>1          </v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="10">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <f>=PRODUCT(B5,D5)</f>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="10">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="E6" s="3">
+        <f>=PRODUCT(B6,D6)</f>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="10">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
+        <f>=PRODUCT(B7,D7)</f>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="10">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
+        <f>=PRODUCT(B8,D8)</f>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="10">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <f>=PRODUCT(B9,D9)</f>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A17:L19"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A10:H12"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.43263888888888902" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -1216,7 +1278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -1232,66 +1294,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="A1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="A2" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1299,7 +1361,7 @@
         <v>42975</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1315,7 +1377,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="8" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -1324,7 +1386,7 @@
         <v>42975</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1340,7 +1402,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="8" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -1349,7 +1411,7 @@
         <v>42975</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1365,7 +1427,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="8" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="K6" s="4"/>
     </row>
@@ -1374,7 +1436,7 @@
         <v>42975</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1390,7 +1452,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="8" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="K7" s="4"/>
     </row>
@@ -1399,7 +1461,7 @@
         <v>42975</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1415,7 +1477,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="8" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="K8" s="4"/>
     </row>
@@ -1424,7 +1486,7 @@
         <v>42975</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1440,7 +1502,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="8" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K9" s="4"/>
     </row>
@@ -1449,7 +1511,7 @@
         <v>42975</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1465,7 +1527,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="8" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="K10" s="4"/>
     </row>
@@ -1474,7 +1536,7 @@
         <v>42975</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1490,7 +1552,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="8" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="K11" s="4"/>
     </row>
@@ -1499,7 +1561,7 @@
         <v>42975</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1515,7 +1577,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="8" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K12" s="4"/>
     </row>
@@ -1524,7 +1586,7 @@
         <v>42975</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1540,7 +1602,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="8" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="K13" s="4"/>
     </row>
@@ -1549,7 +1611,7 @@
         <v>42975</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1565,7 +1627,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="8" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="K14" s="4"/>
     </row>
@@ -1574,15 +1636,15 @@
         <v>42975</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="3" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G15" s="5">
         <f>680*15/450</f>
@@ -1590,112 +1652,112 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="8" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="A16" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
+      <c r="A19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
     </row>
     <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
+      <c r="A20" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1703,15 +1765,15 @@
         <v>42975</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G22" s="5">
         <f>3500*3/400</f>
@@ -1719,7 +1781,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="8" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="K22" s="4"/>
     </row>
@@ -1728,7 +1790,7 @@
         <v>42975</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1744,7 +1806,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="8" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="K23" s="4"/>
     </row>
@@ -1753,7 +1815,7 @@
         <v>42975</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1769,7 +1831,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="8" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="K24" s="4"/>
     </row>
@@ -1778,7 +1840,7 @@
         <v>42975</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1794,7 +1856,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="8" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="K25" s="4"/>
     </row>
@@ -1803,7 +1865,7 @@
         <v>42975</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1819,7 +1881,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="8" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="K26" s="4"/>
     </row>
@@ -1828,7 +1890,7 @@
         <v>42975</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1844,7 +1906,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="8" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="K27" s="4"/>
     </row>
@@ -1853,7 +1915,7 @@
         <v>42975</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1876,7 +1938,7 @@
         <v>42975</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1899,7 +1961,7 @@
         <v>42976</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1915,7 +1977,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="8" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="K30" s="4"/>
     </row>
@@ -1924,7 +1986,7 @@
         <v>42976</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1940,7 +2002,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="8" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="K31" s="4"/>
     </row>
@@ -1949,7 +2011,7 @@
         <v>42976</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1965,7 +2027,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="8" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="K32" s="4"/>
     </row>
@@ -1974,7 +2036,7 @@
         <v>42976</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1990,112 +2052,112 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="8" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
+      <c r="A34" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
     </row>
     <row r="37" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
+      <c r="A37" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
     </row>
     <row r="38" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
+      <c r="A38" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2103,7 +2165,7 @@
         <v>42976</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -2126,7 +2188,7 @@
         <v>42976</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -2142,7 +2204,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="8" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K41" s="4"/>
     </row>
@@ -2297,107 +2359,107 @@
       <c r="K51" s="4"/>
     </row>
     <row r="52" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
+      <c r="A52" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
     </row>
     <row r="55" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
+      <c r="A55" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
     </row>
     <row r="56" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
+      <c r="A56" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2605,45 +2667,45 @@
       <c r="K69" s="4"/>
     </row>
     <row r="70" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
+      <c r="A70" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2660,7 +2722,7 @@
     <mergeCell ref="A56:J56"/>
     <mergeCell ref="A70:K72"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">龙场营镇者把小学学生营养餐食品原材料采购台账</t>
+    <t xml:space="preserve">学生营养餐食品原材料采购台账（第二个）</t>
   </si>
   <si>
     <t xml:space="preserve">                                             年  月份</t>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">签字</t>
   </si>
   <si>
-    <t xml:space="preserve">2018年09月27日</t>
+    <t xml:space="preserve">2018年09月28日</t>
   </si>
   <si>
     <t xml:space="preserve">猪肉</t>
@@ -82,13 +82,118 @@
     <t xml:space="preserve">14</t>
   </si>
   <si>
+    <t xml:space="preserve">Yuu</t>
+  </si>
+  <si>
     <t xml:space="preserve">123</t>
   </si>
   <si>
+    <t xml:space="preserve">2018年09月28日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">猪肉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018年09月28日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123123</t>
+  </si>
+  <si>
     <t xml:space="preserve">123</t>
   </si>
   <si>
     <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018年09月28日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">猪肉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018年09月28日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">猪肉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018年09月28日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">猪肉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1231</t>
   </si>
   <si>
     <t xml:space="preserve">    校长（签字）：             分管校长（签字）：              食堂管理员（签字）：                   监督员（签字）：                </t>
@@ -677,63 +782,189 @@
       <c r="I4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="7"/>
+      <c r="K4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="C5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A5:L7"/>
+    <mergeCell ref="A9:L11"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.43263888888888902" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
